--- a/原理图与PCB/BOM.xlsx
+++ b/原理图与PCB/BOM.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\魔方机器人2023\SCH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemn.JN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A47F01-5FEF-41CE-A54E-FDCC31D690B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204"/>
+    <workbookView xWindow="1560" yWindow="1290" windowWidth="12705" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Board1_Schematic1_2023-12-1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -181,9 +169,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>100mΩ 0805电阻</t>
-  </si>
-  <si>
     <t>R19,R20,R32,R33,R42,R43</t>
   </si>
   <si>
@@ -297,14 +282,97 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0805电阻</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（100m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +411,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -379,13 +470,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -742,30 +832,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.77734375" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -773,390 +863,390 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="D25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="D27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="D28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>3</v>
       </c>
       <c r="D31" s="1"/>
